--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.35</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.35</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="2749">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2717,6 +2717,24 @@
   </si>
   <si>
     <t>IFMK du CHI de Meulan - Les Mureaux</t>
+  </si>
+  <si>
+    <t>UK67</t>
+  </si>
+  <si>
+    <t>IFMK de Meaux</t>
+  </si>
+  <si>
+    <t>UK68</t>
+  </si>
+  <si>
+    <t>IUK de Fontainebleau</t>
+  </si>
+  <si>
+    <t>UK69</t>
+  </si>
+  <si>
+    <t>IFMKN de Nevers</t>
   </si>
   <si>
     <t>UP5</t>
@@ -8610,7 +8628,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1350"/>
+  <dimension ref="A1:D1353"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17986,7 +18004,7 @@
         <v>1605</v>
       </c>
       <c r="C781" t="s" s="2">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="D781" s="2"/>
     </row>
@@ -17995,10 +18013,10 @@
         <v>46</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C782" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D782" s="2"/>
     </row>
@@ -18007,10 +18025,10 @@
         <v>46</v>
       </c>
       <c r="B783" t="s" s="2">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C783" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D783" s="2"/>
     </row>
@@ -18019,10 +18037,10 @@
         <v>46</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C784" t="s" s="2">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="D784" s="2"/>
     </row>
@@ -24226,7 +24244,7 @@
         <v>2644</v>
       </c>
       <c r="C1301" t="s" s="2">
-        <v>1548</v>
+        <v>2645</v>
       </c>
       <c r="D1301" s="2"/>
     </row>
@@ -24235,10 +24253,10 @@
         <v>46</v>
       </c>
       <c r="B1302" t="s" s="2">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C1302" t="s" s="2">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="D1302" s="2"/>
     </row>
@@ -24247,10 +24265,10 @@
         <v>46</v>
       </c>
       <c r="B1303" t="s" s="2">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C1303" t="s" s="2">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="D1303" s="2"/>
     </row>
@@ -24259,10 +24277,10 @@
         <v>46</v>
       </c>
       <c r="B1304" t="s" s="2">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="C1304" t="s" s="2">
-        <v>2650</v>
+        <v>1554</v>
       </c>
       <c r="D1304" s="2"/>
     </row>
@@ -24817,6 +24835,42 @@
         <v>2742</v>
       </c>
       <c r="D1350" s="2"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1351" t="s" s="2">
+        <v>2743</v>
+      </c>
+      <c r="C1351" t="s" s="2">
+        <v>2744</v>
+      </c>
+      <c r="D1351" s="2"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1352" t="s" s="2">
+        <v>2745</v>
+      </c>
+      <c r="C1352" t="s" s="2">
+        <v>2746</v>
+      </c>
+      <c r="D1352" s="2"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1353" t="s" s="2">
+        <v>2747</v>
+      </c>
+      <c r="C1353" t="s" s="2">
+        <v>2748</v>
+      </c>
+      <c r="D1353" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2761,7 +2761,7 @@
     <t>Université Paris-Saclay (ex-Paris-Sud)</t>
   </si>
   <si>
-    <t xml:space="preserve">L'université Paris-Saclay est une université française créée le 6 novembre 2019 par décret paru au Journal officiel. Elle succède à l'université Paris-Sud, créée le 1ᵉʳ janvier 1971 et supprimée le 1er janvier 2020. </t>
+    <t>L'université Paris-Saclay est une université française créée le 6 novembre 2019 par décret paru au Journal officiel. Elle succède à l'université Paris-Sud, créée le 1ᵉʳ janvier 1971 et supprimée le 1er janvier 2020.</t>
   </si>
   <si>
     <t>UP12</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="2754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="2758">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2741,6 +2741,18 @@
   </si>
   <si>
     <t>IFMKN de Nevers</t>
+  </si>
+  <si>
+    <t>UK70</t>
+  </si>
+  <si>
+    <t>IFMK d'Angoulême</t>
+  </si>
+  <si>
+    <t>UK71</t>
+  </si>
+  <si>
+    <t>IFMK de Montbéliard</t>
   </si>
   <si>
     <t>UP5</t>
@@ -8651,7 +8663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1353"/>
+  <dimension ref="A1:D1355"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13877,19 +13889,17 @@
       <c r="C435" t="s" s="2">
         <v>916</v>
       </c>
-      <c r="D435" t="s" s="2">
-        <v>917</v>
-      </c>
+      <c r="D435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B436" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="C436" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="C436" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="D436" s="2"/>
     </row>
@@ -13898,12 +13908,14 @@
         <v>48</v>
       </c>
       <c r="B437" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="C437" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="C437" t="s" s="2">
+      <c r="D437" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="D437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
@@ -13915,19 +13927,17 @@
       <c r="C438" t="s" s="2">
         <v>923</v>
       </c>
-      <c r="D438" t="s" s="2">
-        <v>924</v>
-      </c>
+      <c r="D438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B439" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="C439" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="C439" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -13936,12 +13946,14 @@
         <v>48</v>
       </c>
       <c r="B440" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="C440" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="C440" t="s" s="2">
+      <c r="D440" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="D440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
@@ -18067,7 +18079,7 @@
         <v>1615</v>
       </c>
       <c r="C784" t="s" s="2">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="D784" s="2"/>
     </row>
@@ -18076,10 +18088,10 @@
         <v>48</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C785" t="s" s="2">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D785" s="2"/>
     </row>
@@ -18088,10 +18100,10 @@
         <v>48</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="D786" s="2"/>
     </row>
@@ -18381,19 +18393,17 @@
       <c r="C810" t="s" s="2">
         <v>1667</v>
       </c>
-      <c r="D810" t="s" s="2">
-        <v>1668</v>
-      </c>
+      <c r="D810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B811" t="s" s="2">
+        <v>1668</v>
+      </c>
+      <c r="C811" t="s" s="2">
         <v>1669</v>
-      </c>
-      <c r="C811" t="s" s="2">
-        <v>1670</v>
       </c>
       <c r="D811" s="2"/>
     </row>
@@ -18402,12 +18412,14 @@
         <v>48</v>
       </c>
       <c r="B812" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="C812" t="s" s="2">
         <v>1671</v>
       </c>
-      <c r="C812" t="s" s="2">
+      <c r="D812" t="s" s="2">
         <v>1672</v>
       </c>
-      <c r="D812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
@@ -24309,7 +24321,7 @@
         <v>2655</v>
       </c>
       <c r="C1304" t="s" s="2">
-        <v>1558</v>
+        <v>2656</v>
       </c>
       <c r="D1304" s="2"/>
     </row>
@@ -24318,10 +24330,10 @@
         <v>48</v>
       </c>
       <c r="B1305" t="s" s="2">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C1305" t="s" s="2">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="D1305" s="2"/>
     </row>
@@ -24330,10 +24342,10 @@
         <v>48</v>
       </c>
       <c r="B1306" t="s" s="2">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="C1306" t="s" s="2">
-        <v>2659</v>
+        <v>1562</v>
       </c>
       <c r="D1306" s="2"/>
     </row>
@@ -24900,6 +24912,30 @@
         <v>2753</v>
       </c>
       <c r="D1353" s="2"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1354" t="s" s="2">
+        <v>2754</v>
+      </c>
+      <c r="C1354" t="s" s="2">
+        <v>2755</v>
+      </c>
+      <c r="D1354" s="2"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1355" t="s" s="2">
+        <v>2756</v>
+      </c>
+      <c r="C1355" t="s" s="2">
+        <v>2757</v>
+      </c>
+      <c r="D1355" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="2758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="2762">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,6 +337,12 @@
     <t>Université de l'île de la Réunion</t>
   </si>
   <si>
+    <t>U987</t>
+  </si>
+  <si>
+    <t>Université de la Polynésie Française</t>
+  </si>
+  <si>
     <t>U996</t>
   </si>
   <si>
@@ -2335,6 +2341,66 @@
     <t>IFSI du Centre Hospitalier de Mayotte</t>
   </si>
   <si>
+    <t>UI330</t>
+  </si>
+  <si>
+    <t>IFSI Henri Mondor Créteil AP-HP</t>
+  </si>
+  <si>
+    <t>UI331</t>
+  </si>
+  <si>
+    <t>IFSI Campus Picpus AP-HP</t>
+  </si>
+  <si>
+    <t>UI332</t>
+  </si>
+  <si>
+    <t>IFSI Campus Tohannic - IFPS Vannes</t>
+  </si>
+  <si>
+    <t>UI333</t>
+  </si>
+  <si>
+    <t>IFSI du Centre Hospitalier Régional d'Orléans</t>
+  </si>
+  <si>
+    <t>UI334</t>
+  </si>
+  <si>
+    <t>IFSI Institut Hospitalier Franco-britannique</t>
+  </si>
+  <si>
+    <t>UI335</t>
+  </si>
+  <si>
+    <t>IFSI Hôpital Broussais AP-HP</t>
+  </si>
+  <si>
+    <t>UI336</t>
+  </si>
+  <si>
+    <t>IFSI Nouvelle-Calédonie de Nouméa</t>
+  </si>
+  <si>
+    <t>UI337</t>
+  </si>
+  <si>
+    <t>IFSI de Monaco</t>
+  </si>
+  <si>
+    <t>UI338</t>
+  </si>
+  <si>
+    <t>IFSI de l'AEHP de Toulouse</t>
+  </si>
+  <si>
+    <t>UI339</t>
+  </si>
+  <si>
+    <t>IFSI de l'Hôpital Saint-Lazare</t>
+  </si>
+  <si>
     <t>UK1</t>
   </si>
   <si>
@@ -8024,60 +8090,6 @@
   </si>
   <si>
     <t>Ile de Clipperton</t>
-  </si>
-  <si>
-    <t>U987</t>
-  </si>
-  <si>
-    <t>Université de la Polynésie Française</t>
-  </si>
-  <si>
-    <t>UI330</t>
-  </si>
-  <si>
-    <t>IFSI Henri Mondor Créteil AP-HP</t>
-  </si>
-  <si>
-    <t>UI331</t>
-  </si>
-  <si>
-    <t>IFSI Campus Picpus AP-HP</t>
-  </si>
-  <si>
-    <t>UI332</t>
-  </si>
-  <si>
-    <t>IFSI Campus Tohannic - IFPS Vannes</t>
-  </si>
-  <si>
-    <t>UI333</t>
-  </si>
-  <si>
-    <t>IFSI du Centre Hospitalier Régional d'Orléans</t>
-  </si>
-  <si>
-    <t>UI334</t>
-  </si>
-  <si>
-    <t>IFSI Institut Hospitalier Franco-britannique</t>
-  </si>
-  <si>
-    <t>UI335</t>
-  </si>
-  <si>
-    <t>IFSI Hôpital Broussais AP-HP</t>
-  </si>
-  <si>
-    <t>UI336</t>
-  </si>
-  <si>
-    <t>IFSI Nouvelle-Calédonie de Nouméa</t>
-  </si>
-  <si>
-    <t>UI337</t>
-  </si>
-  <si>
-    <t>IFSI de Monaco</t>
   </si>
   <si>
     <t>CS001</t>
@@ -8663,7 +8675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1355"/>
+  <dimension ref="A1:D1357"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13913,19 +13925,17 @@
       <c r="C437" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="D437" t="s" s="2">
-        <v>921</v>
-      </c>
+      <c r="D437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B438" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="C438" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="C438" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="D438" s="2"/>
     </row>
@@ -13934,10 +13944,10 @@
         <v>48</v>
       </c>
       <c r="B439" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="C439" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="C439" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -13946,24 +13956,22 @@
         <v>48</v>
       </c>
       <c r="B440" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="C440" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="C440" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="D440" t="s" s="2">
-        <v>928</v>
-      </c>
+      <c r="D440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D441" s="2"/>
     </row>
@@ -13972,10 +13980,10 @@
         <v>48</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D442" s="2"/>
     </row>
@@ -13984,10 +13992,10 @@
         <v>48</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D443" s="2"/>
     </row>
@@ -13996,10 +14004,10 @@
         <v>48</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D444" s="2"/>
     </row>
@@ -14008,10 +14016,10 @@
         <v>48</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D445" s="2"/>
     </row>
@@ -14020,10 +14028,10 @@
         <v>48</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D446" s="2"/>
     </row>
@@ -14032,10 +14040,10 @@
         <v>48</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D447" s="2"/>
     </row>
@@ -14044,22 +14052,24 @@
         <v>48</v>
       </c>
       <c r="B448" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="C448" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="D448" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="C448" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="D448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B449" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="C449" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="C449" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="D449" s="2"/>
     </row>
@@ -14068,10 +14078,10 @@
         <v>48</v>
       </c>
       <c r="B450" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="C450" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="C450" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="D450" s="2"/>
     </row>
@@ -14080,12 +14090,14 @@
         <v>48</v>
       </c>
       <c r="B451" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C451" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="C451" t="s" s="2">
+      <c r="D451" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="D451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
@@ -18103,7 +18115,7 @@
         <v>1619</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="D786" s="2"/>
     </row>
@@ -18112,10 +18124,10 @@
         <v>48</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C787" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D787" s="2"/>
     </row>
@@ -18124,10 +18136,10 @@
         <v>48</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C788" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D788" s="2"/>
     </row>
@@ -18136,10 +18148,10 @@
         <v>48</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C789" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D789" s="2"/>
     </row>
@@ -18148,10 +18160,10 @@
         <v>48</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C790" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D790" s="2"/>
     </row>
@@ -18160,10 +18172,10 @@
         <v>48</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C791" t="s" s="2">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D791" s="2"/>
     </row>
@@ -18172,10 +18184,10 @@
         <v>48</v>
       </c>
       <c r="B792" t="s" s="2">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C792" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D792" s="2"/>
     </row>
@@ -18184,10 +18196,10 @@
         <v>48</v>
       </c>
       <c r="B793" t="s" s="2">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C793" t="s" s="2">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D793" s="2"/>
     </row>
@@ -18196,10 +18208,10 @@
         <v>48</v>
       </c>
       <c r="B794" t="s" s="2">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C794" t="s" s="2">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D794" s="2"/>
     </row>
@@ -18208,10 +18220,10 @@
         <v>48</v>
       </c>
       <c r="B795" t="s" s="2">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C795" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D795" s="2"/>
     </row>
@@ -18220,10 +18232,10 @@
         <v>48</v>
       </c>
       <c r="B796" t="s" s="2">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C796" t="s" s="2">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D796" s="2"/>
     </row>
@@ -18232,10 +18244,10 @@
         <v>48</v>
       </c>
       <c r="B797" t="s" s="2">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C797" t="s" s="2">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D797" s="2"/>
     </row>
@@ -18417,19 +18429,17 @@
       <c r="C812" t="s" s="2">
         <v>1671</v>
       </c>
-      <c r="D812" t="s" s="2">
-        <v>1672</v>
-      </c>
+      <c r="D812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B813" t="s" s="2">
+        <v>1672</v>
+      </c>
+      <c r="C813" t="s" s="2">
         <v>1673</v>
-      </c>
-      <c r="C813" t="s" s="2">
-        <v>1674</v>
       </c>
       <c r="D813" s="2"/>
     </row>
@@ -18438,10 +18448,10 @@
         <v>48</v>
       </c>
       <c r="B814" t="s" s="2">
+        <v>1674</v>
+      </c>
+      <c r="C814" t="s" s="2">
         <v>1675</v>
-      </c>
-      <c r="C814" t="s" s="2">
-        <v>1676</v>
       </c>
       <c r="D814" s="2"/>
     </row>
@@ -18450,10 +18460,10 @@
         <v>48</v>
       </c>
       <c r="B815" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="C815" t="s" s="2">
         <v>1677</v>
-      </c>
-      <c r="C815" t="s" s="2">
-        <v>1678</v>
       </c>
       <c r="D815" s="2"/>
     </row>
@@ -18462,10 +18472,10 @@
         <v>48</v>
       </c>
       <c r="B816" t="s" s="2">
+        <v>1678</v>
+      </c>
+      <c r="C816" t="s" s="2">
         <v>1679</v>
-      </c>
-      <c r="C816" t="s" s="2">
-        <v>1680</v>
       </c>
       <c r="D816" s="2"/>
     </row>
@@ -18474,10 +18484,10 @@
         <v>48</v>
       </c>
       <c r="B817" t="s" s="2">
+        <v>1680</v>
+      </c>
+      <c r="C817" t="s" s="2">
         <v>1681</v>
-      </c>
-      <c r="C817" t="s" s="2">
-        <v>1682</v>
       </c>
       <c r="D817" s="2"/>
     </row>
@@ -18486,10 +18496,10 @@
         <v>48</v>
       </c>
       <c r="B818" t="s" s="2">
+        <v>1682</v>
+      </c>
+      <c r="C818" t="s" s="2">
         <v>1683</v>
-      </c>
-      <c r="C818" t="s" s="2">
-        <v>1684</v>
       </c>
       <c r="D818" s="2"/>
     </row>
@@ -18498,10 +18508,10 @@
         <v>48</v>
       </c>
       <c r="B819" t="s" s="2">
+        <v>1684</v>
+      </c>
+      <c r="C819" t="s" s="2">
         <v>1685</v>
-      </c>
-      <c r="C819" t="s" s="2">
-        <v>1686</v>
       </c>
       <c r="D819" s="2"/>
     </row>
@@ -18510,10 +18520,10 @@
         <v>48</v>
       </c>
       <c r="B820" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="C820" t="s" s="2">
         <v>1687</v>
-      </c>
-      <c r="C820" t="s" s="2">
-        <v>1688</v>
       </c>
       <c r="D820" s="2"/>
     </row>
@@ -18522,10 +18532,10 @@
         <v>48</v>
       </c>
       <c r="B821" t="s" s="2">
+        <v>1688</v>
+      </c>
+      <c r="C821" t="s" s="2">
         <v>1689</v>
-      </c>
-      <c r="C821" t="s" s="2">
-        <v>1690</v>
       </c>
       <c r="D821" s="2"/>
     </row>
@@ -18534,10 +18544,10 @@
         <v>48</v>
       </c>
       <c r="B822" t="s" s="2">
+        <v>1690</v>
+      </c>
+      <c r="C822" t="s" s="2">
         <v>1691</v>
-      </c>
-      <c r="C822" t="s" s="2">
-        <v>1692</v>
       </c>
       <c r="D822" s="2"/>
     </row>
@@ -18546,12 +18556,14 @@
         <v>48</v>
       </c>
       <c r="B823" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="C823" t="s" s="2">
         <v>1693</v>
       </c>
-      <c r="C823" t="s" s="2">
+      <c r="D823" t="s" s="2">
         <v>1694</v>
       </c>
-      <c r="D823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" t="s" s="2">
@@ -24345,7 +24357,7 @@
         <v>2659</v>
       </c>
       <c r="C1306" t="s" s="2">
-        <v>1562</v>
+        <v>2660</v>
       </c>
       <c r="D1306" s="2"/>
     </row>
@@ -24354,10 +24366,10 @@
         <v>48</v>
       </c>
       <c r="B1307" t="s" s="2">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C1307" t="s" s="2">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="D1307" s="2"/>
     </row>
@@ -24366,10 +24378,10 @@
         <v>48</v>
       </c>
       <c r="B1308" t="s" s="2">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C1308" t="s" s="2">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="D1308" s="2"/>
     </row>
@@ -24378,10 +24390,10 @@
         <v>48</v>
       </c>
       <c r="B1309" t="s" s="2">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C1309" t="s" s="2">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="D1309" s="2"/>
     </row>
@@ -24390,10 +24402,10 @@
         <v>48</v>
       </c>
       <c r="B1310" t="s" s="2">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C1310" t="s" s="2">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="D1310" s="2"/>
     </row>
@@ -24402,10 +24414,10 @@
         <v>48</v>
       </c>
       <c r="B1311" t="s" s="2">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="C1311" t="s" s="2">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="D1311" s="2"/>
     </row>
@@ -24414,10 +24426,10 @@
         <v>48</v>
       </c>
       <c r="B1312" t="s" s="2">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="C1312" t="s" s="2">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="D1312" s="2"/>
     </row>
@@ -24426,10 +24438,10 @@
         <v>48</v>
       </c>
       <c r="B1313" t="s" s="2">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="C1313" t="s" s="2">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="D1313" s="2"/>
     </row>
@@ -24438,10 +24450,10 @@
         <v>48</v>
       </c>
       <c r="B1314" t="s" s="2">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="C1314" t="s" s="2">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="D1314" s="2"/>
     </row>
@@ -24450,10 +24462,10 @@
         <v>48</v>
       </c>
       <c r="B1315" t="s" s="2">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="C1315" t="s" s="2">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="D1315" s="2"/>
     </row>
@@ -24462,10 +24474,10 @@
         <v>48</v>
       </c>
       <c r="B1316" t="s" s="2">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="C1316" t="s" s="2">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="D1316" s="2"/>
     </row>
@@ -24474,10 +24486,10 @@
         <v>48</v>
       </c>
       <c r="B1317" t="s" s="2">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="C1317" t="s" s="2">
-        <v>2681</v>
+        <v>1584</v>
       </c>
       <c r="D1317" s="2"/>
     </row>
@@ -24936,6 +24948,30 @@
         <v>2757</v>
       </c>
       <c r="D1355" s="2"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1356" t="s" s="2">
+        <v>2758</v>
+      </c>
+      <c r="C1356" t="s" s="2">
+        <v>2759</v>
+      </c>
+      <c r="D1356" s="2"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1357" t="s" s="2">
+        <v>2760</v>
+      </c>
+      <c r="C1357" t="s" s="2">
+        <v>2761</v>
+      </c>
+      <c r="D1357" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/ig/main/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
